--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc107_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc107_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -910,10 +922,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -957,28 +969,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1003,28 +1015,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1170,10 +1182,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1217,28 +1229,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1263,28 +1275,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1488,10 +1500,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1535,28 +1547,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1581,28 +1593,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1748,10 +1760,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1795,28 +1807,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="2">
+      <c r="C58" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1841,28 +1853,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1979,10 +1991,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2026,28 +2038,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2072,28 +2084,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2210,10 +2222,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2257,28 +2269,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2303,28 +2315,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2470,10 +2482,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2517,28 +2529,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2563,28 +2575,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2730,10 +2742,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="J90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2777,28 +2789,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="2">
+      <c r="C92" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2823,28 +2835,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2961,10 +2973,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3008,28 +3020,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3054,28 +3066,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3250,10 +3262,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3297,28 +3309,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3343,28 +3355,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3539,10 +3551,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="2" t="s">
+      <c r="J118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3586,28 +3598,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="2">
+      <c r="C120" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3632,28 +3644,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3712,10 +3724,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3759,28 +3771,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3805,28 +3817,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4059,10 +4071,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="2" t="s">
+      <c r="J136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4106,28 +4118,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="2">
+      <c r="C138" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4152,28 +4164,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4319,10 +4331,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4366,28 +4378,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4412,28 +4424,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4608,10 +4620,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4655,28 +4667,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4701,28 +4713,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4839,10 +4851,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4886,28 +4898,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4932,28 +4944,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5099,10 +5111,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5146,28 +5158,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5192,28 +5204,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5388,10 +5400,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5435,28 +5447,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5481,28 +5493,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5561,10 +5573,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5608,28 +5620,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5654,28 +5666,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5821,10 +5833,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5868,28 +5880,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5914,28 +5926,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6052,10 +6064,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6099,28 +6111,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6145,28 +6157,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6225,10 +6237,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6272,28 +6284,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6318,28 +6330,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6485,10 +6497,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6532,28 +6544,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6578,28 +6590,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6658,10 +6670,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6705,28 +6717,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="2">
+      <c r="A228" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="2">
+      <c r="C228" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6751,28 +6763,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="2">
+      <c r="C230" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="2">
+      <c r="D230" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="2">
+      <c r="I230" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6831,10 +6843,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="J232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6878,28 +6890,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
+      <c r="A234" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="2">
+      <c r="C234" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6924,28 +6936,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="2">
+      <c r="C236" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="2">
+      <c r="D236" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="2">
+      <c r="I236" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7004,10 +7016,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7051,28 +7063,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7097,28 +7109,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7177,10 +7189,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7224,28 +7236,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7270,28 +7282,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7350,10 +7362,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7397,28 +7409,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7443,28 +7455,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7523,10 +7535,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
